--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\UnityProject\Jam101_urp_gf\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE815F8-6735-402E-BD9F-EC27C93F1D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A165645-D3E3-4377-8681-714D31E6932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>item.TbItem</t>
   </si>
   <si>
     <t>Item</t>
@@ -160,12 +157,139 @@
     <t>TbUIPanelConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TbHero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbShop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hop</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hop.xlsx</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbDice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dice.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMoney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbColor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CColor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +314,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -227,11 +359,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,7 +657,11 @@
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="54.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -616,59 +755,161 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
